--- a/data/case1/18/Qlm1_11.xlsx
+++ b/data/case1/18/Qlm1_11.xlsx
@@ -62,258 +62,258 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.21958201163371172</v>
+        <v>-0.21823451781839509</v>
       </c>
       <c r="B1" s="0">
-        <v>0.21938195449698128</v>
+        <v>0.21804058587594</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.15779553844540928</v>
+        <v>-0.15727086447088112</v>
       </c>
       <c r="B2" s="0">
-        <v>0.15737382619314477</v>
+        <v>0.15685396304133015</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.10766761667738045</v>
+        <v>-0.1071485688817031</v>
       </c>
       <c r="B3" s="0">
-        <v>0.10749023848122086</v>
+        <v>0.10697114947461372</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.099490238509002182</v>
+        <v>-0.09897114953202113</v>
       </c>
       <c r="B4" s="0">
-        <v>0.099093653077543919</v>
+        <v>0.098581280913808911</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.096093653093336506</v>
+        <v>-0.095581280946419156</v>
       </c>
       <c r="B5" s="0">
-        <v>0.094752916532524267</v>
+        <v>0.094262424806784928</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.040737127550906749</v>
+        <v>-0.040336610583187493</v>
       </c>
       <c r="B6" s="0">
-        <v>0.04040310174356776</v>
+        <v>0.04001328858917752</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.030403101783874842</v>
+        <v>-0.030013288672153582</v>
       </c>
       <c r="B7" s="0">
-        <v>0.03033114372537371</v>
+        <v>0.029944494975937541</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.020331143766701754</v>
+        <v>-0.019944495061059886</v>
       </c>
       <c r="B8" s="0">
-        <v>0.020228709475205164</v>
+        <v>0.019848439018641084</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.018228709495863527</v>
+        <v>-0.0178484390612903</v>
       </c>
       <c r="B9" s="0">
-        <v>0.018152445335107625</v>
+        <v>0.017777640625388003</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.016152445356869549</v>
+        <v>-0.015777640670300741</v>
       </c>
       <c r="B10" s="0">
-        <v>0.016148362963317453</v>
+        <v>0.01577469520703545</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.013148362987926099</v>
+        <v>-0.012774695257741442</v>
       </c>
       <c r="B11" s="0">
-        <v>0.01314236534801605</v>
+        <v>0.012769695076466192</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0096423653741624094</v>
+        <v>-0.0092696951303925523</v>
       </c>
       <c r="B12" s="0">
-        <v>0.0096092538504470859</v>
+        <v>0.0092408823871736878</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0061092538774678573</v>
+        <v>-0.0057408824429137084</v>
       </c>
       <c r="B13" s="0">
-        <v>0.0061004338676955427</v>
+        <v>0.0057339858633591589</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.0018995660927556557</v>
+        <v>0.0022660140551131747</v>
       </c>
       <c r="B14" s="0">
-        <v>-0.0018995968709045741</v>
+        <v>-0.002266056368161351</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.0028995968504652581</v>
+        <v>0.0032660563259723219</v>
       </c>
       <c r="B15" s="0">
-        <v>-0.0029009853517543149</v>
+        <v>-0.0032679850042036662</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0060341401549548479</v>
+        <v>-0.0060339638241582172</v>
       </c>
       <c r="B16" s="0">
-        <v>0.0060036143224047045</v>
+        <v>0.006003423258485352</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0040036143460149276</v>
+        <v>-0.0040034233071857273</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0039999999707971412</v>
+        <v>0.0039999999397943853</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.055586416068720723</v>
+        <v>-0.054769721440276697</v>
       </c>
       <c r="B18" s="0">
-        <v>0.055479089038872331</v>
+        <v>0.054666415890579856</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.051479089050844085</v>
+        <v>-0.050666415915244567</v>
       </c>
       <c r="B19" s="0">
-        <v>0.050703328011553417</v>
+        <v>0.049910654173991986</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.046703328027930979</v>
+        <v>-0.045910654207485635</v>
       </c>
       <c r="B20" s="0">
-        <v>0.046483465067321816</v>
+        <v>0.045697554753706626</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0040058533990130485</v>
+        <v>-0.0040057988573156678</v>
       </c>
       <c r="B21" s="0">
-        <v>0.0039999999826525467</v>
+        <v>0.0039999999645248252</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.045706209531067188</v>
+        <v>-0.045705394191250193</v>
       </c>
       <c r="B22" s="0">
-        <v>0.045494453204007357</v>
+        <v>0.045494112976712131</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.040494453222942539</v>
+        <v>-0.040494113015801858</v>
       </c>
       <c r="B23" s="0">
-        <v>0.040098185992808233</v>
+        <v>0.040098037145776644</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.020098186054552158</v>
+        <v>-0.020098037272974878</v>
       </c>
       <c r="B24" s="0">
-        <v>0.019999999937459378</v>
+        <v>0.019999999871133767</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.052015788999490553</v>
+        <v>-0.051925814260393111</v>
       </c>
       <c r="B25" s="0">
-        <v>0.051978367198790565</v>
+        <v>0.051889201174555311</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.049478367218094732</v>
+        <v>-0.049389201214236067</v>
       </c>
       <c r="B26" s="0">
-        <v>0.049433784951046889</v>
+        <v>0.049345350170680646</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.046933784970935033</v>
+        <v>-0.046845350211541792</v>
       </c>
       <c r="B27" s="0">
-        <v>0.046689789572798013</v>
+        <v>0.04660151496849041</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.04468978959391734</v>
+        <v>-0.044601515011974513</v>
       </c>
       <c r="B28" s="0">
-        <v>0.044537025393401208</v>
+        <v>0.044449010147412871</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.037537025430044224</v>
+        <v>-0.037449010222869283</v>
       </c>
       <c r="B29" s="0">
-        <v>0.037503220641519341</v>
+        <v>0.037415607444127197</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.022496779175969817</v>
+        <v>0.022584392180328816</v>
       </c>
       <c r="B30" s="0">
-        <v>-0.022530282798612689</v>
+        <v>-0.022618109256106411</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.029530282762062043</v>
+        <v>0.029618109180864494</v>
       </c>
       <c r="B31" s="0">
-        <v>-0.02955382885443214</v>
+        <v>-0.029641039974835692</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0040014729960944351</v>
+        <v>-0.004001239050550609</v>
       </c>
       <c r="B32" s="0">
-        <v>0.0039999999719970702</v>
+        <v>0.0039999999423798727</v>
       </c>
     </row>
   </sheetData>
